--- a/ProductMatch/NER/ProductMatch_2016.xlsx
+++ b/ProductMatch/NER/ProductMatch_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\NER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA16DFD8-00D0-4DA4-A6DC-CDD00D39B55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8974908-A269-4E32-AA3F-7E0330057446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8919F0C5-693D-4D25-84DB-69E72084BECD}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -202,14 +190,34 @@
   </si>
   <si>
     <t>94; 95; 96; 97; 98; 99</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,8 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,35 +564,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD96FB8F-A5EC-4C85-8F70-D3C37F9796C2}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,10 +604,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -602,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -613,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -646,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -668,7 +681,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -679,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -690,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -701,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -723,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,10 +747,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,10 +758,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,10 +769,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,10 +780,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,10 +791,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -789,10 +802,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -800,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,10 +824,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,10 +857,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,10 +868,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,10 +879,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,10 +890,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
